--- a/Programacion_basica/Sprint05/Unidad_02/data/df_eventos_historicos.xlsx
+++ b/Programacion_basica/Sprint05/Unidad_02/data/df_eventos_historicos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edici\PRODUCCION\Analisis_de_Datos\Sprint_05\Unidad_02_Acceso_y_Procesado_de_Datos_Internos__Ficheros\Assesments\Prog_Guiada\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuar\Desktop\The_Bridge\ONLINE_DS_THEBRIDGE_jacobo\Programacion_basica\Sprint05\Unidad_02\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B90CBD-1782-4682-94C1-3B898F5A973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C147F61-BF2C-48DA-86D1-D22089A8F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -550,9 +550,9 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1776</v>
       </c>
@@ -574,7 +574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>476</v>
       </c>
@@ -585,7 +585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1789</v>
       </c>
@@ -596,7 +596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1492</v>
       </c>
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1912</v>
       </c>
@@ -618,7 +618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1903</v>
       </c>
@@ -629,7 +629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>753</v>
       </c>
@@ -640,7 +640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1914</v>
       </c>
@@ -651,7 +651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1945</v>
       </c>
@@ -662,7 +662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1989</v>
       </c>
@@ -673,7 +673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1868</v>
       </c>
@@ -684,7 +684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1440</v>
       </c>
@@ -695,7 +695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1919</v>
       </c>
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1917</v>
       </c>
@@ -717,7 +717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1453</v>
       </c>
@@ -728,7 +728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>563</v>
       </c>
@@ -739,7 +739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -750,7 +750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1953</v>
       </c>
@@ -761,7 +761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1300</v>
       </c>
@@ -772,7 +772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1944</v>
       </c>
@@ -783,7 +783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1533</v>
       </c>
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1947</v>
       </c>
@@ -805,7 +805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1928</v>
       </c>
@@ -816,7 +816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1949</v>
       </c>
@@ -827,7 +827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>700</v>
       </c>
@@ -838,7 +838,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1492</v>
       </c>
@@ -849,7 +849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1494</v>
       </c>
